--- a/data/RockCreekCytometrySamples_Feb17.xlsx
+++ b/data/RockCreekCytometrySamples_Feb17.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/KeithSSD/RockCreek/RC_CellCounts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0FB18E-D7CF-1A4D-94C5-4F12653DB9C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6305A5-4B3C-424D-8CD5-B9B8EE473DEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="0" windowWidth="28540" windowHeight="15880" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="0" windowWidth="28540" windowHeight="15880" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staining Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Bead Lot Numbers" sheetId="3" r:id="rId2"/>
     <sheet name="Cytometry Filtered Tube Labels" sheetId="2" r:id="rId3"/>
-    <sheet name="SampleListAndNotes" sheetId="7" r:id="rId4"/>
-    <sheet name="Full_Data_Matrix" sheetId="4" r:id="rId5"/>
-    <sheet name="Costs" sheetId="6" r:id="rId6"/>
-    <sheet name="Deadlines" sheetId="5" r:id="rId7"/>
+    <sheet name="Qubit and QPCR" sheetId="8" r:id="rId4"/>
+    <sheet name="SampleListAndNotes" sheetId="7" r:id="rId5"/>
+    <sheet name="Full_Data_Matrix" sheetId="4" r:id="rId6"/>
+    <sheet name="Costs" sheetId="6" r:id="rId7"/>
+    <sheet name="Deadlines" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Cytometry Filtered Tube Labels'!$A$1:$K$191</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Full_Data_Matrix!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Full_Data_Matrix!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="233">
   <si>
     <t>protocol</t>
   </si>
@@ -573,6 +574,162 @@
   </si>
   <si>
     <t>MISSING!</t>
+  </si>
+  <si>
+    <t>FilterDate</t>
+  </si>
+  <si>
+    <t>ExtractionDate</t>
+  </si>
+  <si>
+    <t>Qubit 1</t>
+  </si>
+  <si>
+    <t>QPCR1</t>
+  </si>
+  <si>
+    <t>QPCR2</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>QPCR Date</t>
+  </si>
+  <si>
+    <t>Qubit Date</t>
+  </si>
+  <si>
+    <t>QPCR Well1</t>
+  </si>
+  <si>
+    <t>QPCR Well2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>Qubt Standard1</t>
+  </si>
+  <si>
+    <t>Qubit Standard 2</t>
+  </si>
+  <si>
+    <t>RC2LT</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Replicate #</t>
+  </si>
+  <si>
+    <t>7am</t>
+  </si>
+  <si>
+    <t>7pm</t>
+  </si>
+  <si>
+    <t>1pm</t>
+  </si>
+  <si>
+    <t>Batch Number</t>
+  </si>
+  <si>
+    <t>45mL, Different volumes of sample added to each, balanced to 50 with water. Did not use enough SYBR (1/1000 instead of 1/100)</t>
+  </si>
+  <si>
+    <t>45 ml of sample added, balanced to 50 with water. Did not use enough SYBR (1/1000 instead of 1/100)</t>
+  </si>
+  <si>
+    <t>30mL of sample balanced to 50 with water. Did not use enough SYBR (1/1000 instead of 1/100)</t>
+  </si>
+  <si>
+    <t>30 ml of sample added balanced to 50 with water. Did not use enough SYBR (1/1000 instead of 1/100)</t>
+  </si>
+  <si>
+    <t>15mL of sample addedbalanced to 50 with water. Did not use enough SYBR (1/1000 instead of 1/100)</t>
+  </si>
+  <si>
+    <t>15ml of sample added, balanced to 50 with water. Did not use enough SYBR (1/1000 instead of 1/100)</t>
+  </si>
+  <si>
+    <t>30 ml of sample added, balanced to 50 with water. Did not use enough SYBR (1/1000 instead of 1/100)</t>
+  </si>
+  <si>
+    <t>30ml of sample added, balanced to 50 with water. Did not use enough SYBR (1/1000 instead of 1/100)</t>
+  </si>
+  <si>
+    <t>15 ml of sample added, balanced to 50 with water. Did not use enough SYBR (1/1000 instead of 1/100)</t>
   </si>
 </sst>
 </file>
@@ -798,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -871,6 +1028,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1323,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2A43A8-C417-47C5-9C06-B16FAFE2749E}">
   <dimension ref="A1:P192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7194,6 +7353,755 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF2BE2-C7D7-D24C-A109-F0E673947BBD}">
+  <dimension ref="A1:R13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="70">
+        <v>43745</v>
+      </c>
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="70">
+        <v>43881</v>
+      </c>
+      <c r="H2" s="70">
+        <v>43881</v>
+      </c>
+      <c r="I2" s="70">
+        <v>43882</v>
+      </c>
+      <c r="J2" s="70">
+        <v>43882</v>
+      </c>
+      <c r="K2">
+        <v>3.99</v>
+      </c>
+      <c r="L2" s="71">
+        <v>32.68</v>
+      </c>
+      <c r="M2" s="71">
+        <v>16601.02</v>
+      </c>
+      <c r="N2">
+        <v>14.632073146880099</v>
+      </c>
+      <c r="O2">
+        <v>18.3834846560889</v>
+      </c>
+      <c r="P2" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>192</v>
+      </c>
+      <c r="R2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="70">
+        <v>43745</v>
+      </c>
+      <c r="B3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="70">
+        <v>43881</v>
+      </c>
+      <c r="H3" s="70">
+        <v>43881</v>
+      </c>
+      <c r="I3" s="70">
+        <v>43882</v>
+      </c>
+      <c r="J3" s="70">
+        <v>43882</v>
+      </c>
+      <c r="K3">
+        <v>4.03</v>
+      </c>
+      <c r="L3" s="71">
+        <v>32.68</v>
+      </c>
+      <c r="M3" s="71">
+        <v>16601.02</v>
+      </c>
+      <c r="N3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O3">
+        <v>28.954709531542299</v>
+      </c>
+      <c r="P3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="70">
+        <v>43745</v>
+      </c>
+      <c r="B4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="70">
+        <v>43881</v>
+      </c>
+      <c r="H4" s="70">
+        <v>43881</v>
+      </c>
+      <c r="I4" s="70">
+        <v>43882</v>
+      </c>
+      <c r="J4" s="70">
+        <v>43882</v>
+      </c>
+      <c r="K4">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="L4" s="71">
+        <v>32.68</v>
+      </c>
+      <c r="M4" s="71">
+        <v>16601.02</v>
+      </c>
+      <c r="N4" t="s">
+        <v>186</v>
+      </c>
+      <c r="O4">
+        <v>14.100984073001401</v>
+      </c>
+      <c r="P4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="70">
+        <v>43745</v>
+      </c>
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="70">
+        <v>43881</v>
+      </c>
+      <c r="H5" s="70">
+        <v>43881</v>
+      </c>
+      <c r="I5" s="70">
+        <v>43882</v>
+      </c>
+      <c r="J5" s="70">
+        <v>43882</v>
+      </c>
+      <c r="K5">
+        <v>2.44</v>
+      </c>
+      <c r="L5" s="71">
+        <v>32.68</v>
+      </c>
+      <c r="M5" s="71">
+        <v>16601.02</v>
+      </c>
+      <c r="N5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O5" t="s">
+        <v>186</v>
+      </c>
+      <c r="P5" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>198</v>
+      </c>
+      <c r="R5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="70">
+        <v>43745</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="70">
+        <v>43881</v>
+      </c>
+      <c r="H6" s="70">
+        <v>43881</v>
+      </c>
+      <c r="I6" s="70">
+        <v>43882</v>
+      </c>
+      <c r="J6" s="70">
+        <v>43882</v>
+      </c>
+      <c r="K6">
+        <v>1.31</v>
+      </c>
+      <c r="L6" s="71">
+        <v>32.68</v>
+      </c>
+      <c r="M6" s="71">
+        <v>16601.02</v>
+      </c>
+      <c r="N6">
+        <v>16.974541276672198</v>
+      </c>
+      <c r="O6">
+        <v>15.345173792649399</v>
+      </c>
+      <c r="P6" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>208</v>
+      </c>
+      <c r="R6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="70">
+        <v>43745</v>
+      </c>
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="70">
+        <v>43881</v>
+      </c>
+      <c r="H7" s="70">
+        <v>43881</v>
+      </c>
+      <c r="I7" s="70">
+        <v>43882</v>
+      </c>
+      <c r="J7" s="70">
+        <v>43882</v>
+      </c>
+      <c r="K7">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="L7" s="71">
+        <v>32.68</v>
+      </c>
+      <c r="M7" s="71">
+        <v>16601.02</v>
+      </c>
+      <c r="N7" t="s">
+        <v>186</v>
+      </c>
+      <c r="O7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>210</v>
+      </c>
+      <c r="R7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="70">
+        <v>43745</v>
+      </c>
+      <c r="B8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="70">
+        <v>43881</v>
+      </c>
+      <c r="H8" s="70">
+        <v>43881</v>
+      </c>
+      <c r="I8" s="70">
+        <v>43882</v>
+      </c>
+      <c r="J8" s="70">
+        <v>43882</v>
+      </c>
+      <c r="K8">
+        <v>5.57</v>
+      </c>
+      <c r="L8" s="71">
+        <v>32.68</v>
+      </c>
+      <c r="M8" s="71">
+        <v>16601.02</v>
+      </c>
+      <c r="N8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O8" t="s">
+        <v>186</v>
+      </c>
+      <c r="P8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>212</v>
+      </c>
+      <c r="R8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="70">
+        <v>43745</v>
+      </c>
+      <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="70">
+        <v>43881</v>
+      </c>
+      <c r="H9" s="70">
+        <v>43881</v>
+      </c>
+      <c r="I9" s="70">
+        <v>43882</v>
+      </c>
+      <c r="J9" s="70">
+        <v>43882</v>
+      </c>
+      <c r="K9">
+        <v>5.16</v>
+      </c>
+      <c r="L9" s="71">
+        <v>32.68</v>
+      </c>
+      <c r="M9" s="71">
+        <v>16601.02</v>
+      </c>
+      <c r="N9" t="s">
+        <v>186</v>
+      </c>
+      <c r="O9" t="s">
+        <v>186</v>
+      </c>
+      <c r="P9" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>214</v>
+      </c>
+      <c r="R9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="70">
+        <v>43745</v>
+      </c>
+      <c r="B10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" s="70">
+        <v>43881</v>
+      </c>
+      <c r="H10" s="70">
+        <v>43881</v>
+      </c>
+      <c r="I10" s="70">
+        <v>43882</v>
+      </c>
+      <c r="J10" s="70">
+        <v>43882</v>
+      </c>
+      <c r="K10">
+        <v>1.85</v>
+      </c>
+      <c r="L10" s="71">
+        <v>32.68</v>
+      </c>
+      <c r="M10" s="71">
+        <v>16601.02</v>
+      </c>
+      <c r="N10" t="s">
+        <v>186</v>
+      </c>
+      <c r="O10" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>200</v>
+      </c>
+      <c r="R10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="70">
+        <v>43745</v>
+      </c>
+      <c r="B11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="70">
+        <v>43881</v>
+      </c>
+      <c r="H11" s="70">
+        <v>43881</v>
+      </c>
+      <c r="I11" s="70">
+        <v>43882</v>
+      </c>
+      <c r="J11" s="70">
+        <v>43882</v>
+      </c>
+      <c r="K11">
+        <v>2.36</v>
+      </c>
+      <c r="L11" s="71">
+        <v>32.68</v>
+      </c>
+      <c r="M11" s="71">
+        <v>16601.02</v>
+      </c>
+      <c r="N11" t="s">
+        <v>186</v>
+      </c>
+      <c r="O11" t="s">
+        <v>186</v>
+      </c>
+      <c r="P11" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>202</v>
+      </c>
+      <c r="R11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="70">
+        <v>43745</v>
+      </c>
+      <c r="B12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12" s="70">
+        <v>43881</v>
+      </c>
+      <c r="H12" s="70">
+        <v>43881</v>
+      </c>
+      <c r="I12" s="70">
+        <v>43882</v>
+      </c>
+      <c r="J12" s="70">
+        <v>43882</v>
+      </c>
+      <c r="K12">
+        <v>1.31</v>
+      </c>
+      <c r="L12" s="71">
+        <v>32.68</v>
+      </c>
+      <c r="M12" s="71">
+        <v>16601.02</v>
+      </c>
+      <c r="N12" t="s">
+        <v>186</v>
+      </c>
+      <c r="O12" t="s">
+        <v>186</v>
+      </c>
+      <c r="P12" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>204</v>
+      </c>
+      <c r="R12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="70">
+        <v>43745</v>
+      </c>
+      <c r="B13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13" s="70">
+        <v>43881</v>
+      </c>
+      <c r="H13" s="70">
+        <v>43881</v>
+      </c>
+      <c r="I13" s="70">
+        <v>43882</v>
+      </c>
+      <c r="J13" s="70">
+        <v>43882</v>
+      </c>
+      <c r="K13">
+        <v>1.35</v>
+      </c>
+      <c r="L13" s="71">
+        <v>32.68</v>
+      </c>
+      <c r="M13" s="71">
+        <v>16601.02</v>
+      </c>
+      <c r="N13" t="s">
+        <v>186</v>
+      </c>
+      <c r="O13" t="s">
+        <v>186</v>
+      </c>
+      <c r="P13" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>206</v>
+      </c>
+      <c r="R13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D5F1E5-B405-4EA1-9B22-EFB131D1592A}">
   <dimension ref="A1:M157"/>
   <sheetViews>
@@ -10906,7 +11814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB07B45-83ED-4BD9-9DDB-4A1A21E51A22}">
   <dimension ref="A1:Q183"/>
   <sheetViews>
@@ -13745,7 +14653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FE1299-0192-42FB-B504-F1FB5FD2AB6D}">
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -13977,7 +14885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5190C3-8717-485B-8125-432BCEDE3F4D}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/data/RockCreekCytometrySamples_Feb17.xlsx
+++ b/data/RockCreekCytometrySamples_Feb17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/KeithSSD/RockCreek/RC_CellCounts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6305A5-4B3C-424D-8CD5-B9B8EE473DEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F616A880-1200-9E48-B74B-713C28569FF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="0" windowWidth="28540" windowHeight="15880" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="232">
   <si>
     <t>protocol</t>
   </si>
@@ -559,9 +559,6 @@
   </si>
   <si>
     <t>Deadline Schedule</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>RC1-BUOY</t>
@@ -1482,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2A43A8-C417-47C5-9C06-B16FAFE2749E}">
   <dimension ref="A1:P192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="140" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1534,10 +1531,6 @@
       <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="K1">
-        <f>COUNTA(J2:J191)</f>
-        <v>182</v>
-      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="40">
@@ -3643,7 +3636,7 @@
         <v>30</v>
       </c>
       <c r="E69" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F69" s="45" t="s">
         <v>39</v>
@@ -3673,7 +3666,7 @@
         <v>30</v>
       </c>
       <c r="E70" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F70" s="45" t="s">
         <v>39</v>
@@ -4669,7 +4662,7 @@
         <v>31</v>
       </c>
       <c r="F103" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G103" s="45"/>
       <c r="H103" s="45" t="s">
@@ -4699,7 +4692,7 @@
         <v>31</v>
       </c>
       <c r="F104" s="58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G104" s="45"/>
       <c r="H104" s="45" t="s">
@@ -5010,9 +5003,6 @@
         <v>2</v>
       </c>
       <c r="K114" s="5"/>
-      <c r="L114" t="s">
-        <v>176</v>
-      </c>
       <c r="M114" s="4"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
@@ -7181,7 +7171,7 @@
         <v>37</v>
       </c>
       <c r="E186" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F186" t="s">
         <v>37</v>
@@ -7209,7 +7199,7 @@
         <v>37</v>
       </c>
       <c r="E187" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F187" t="s">
         <v>37</v>
@@ -7334,10 +7324,10 @@
         <v>31</v>
       </c>
       <c r="F192" t="s">
+        <v>178</v>
+      </c>
+      <c r="G192" t="s">
         <v>179</v>
-      </c>
-      <c r="G192" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -7382,43 +7372,43 @@
         <v>52</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="L1" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>189</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>190</v>
       </c>
       <c r="R1" s="14" t="s">
         <v>27</v>
@@ -7429,7 +7419,7 @@
         <v>43745</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
@@ -7471,13 +7461,13 @@
         <v>18.3834846560889</v>
       </c>
       <c r="P2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q2" t="s">
         <v>191</v>
       </c>
-      <c r="Q2" t="s">
-        <v>192</v>
-      </c>
       <c r="R2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -7485,7 +7475,7 @@
         <v>43745</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
@@ -7521,19 +7511,19 @@
         <v>16601.02</v>
       </c>
       <c r="N3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O3">
         <v>28.954709531542299</v>
       </c>
       <c r="P3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q3" t="s">
         <v>193</v>
       </c>
-      <c r="Q3" t="s">
-        <v>194</v>
-      </c>
       <c r="R3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -7541,7 +7531,7 @@
         <v>43745</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
         <v>80</v>
@@ -7577,19 +7567,19 @@
         <v>16601.02</v>
       </c>
       <c r="N4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O4">
         <v>14.100984073001401</v>
       </c>
       <c r="P4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q4" t="s">
         <v>195</v>
       </c>
-      <c r="Q4" t="s">
-        <v>196</v>
-      </c>
       <c r="R4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -7597,7 +7587,7 @@
         <v>43745</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
@@ -7633,19 +7623,19 @@
         <v>16601.02</v>
       </c>
       <c r="N5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P5" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q5" t="s">
         <v>197</v>
       </c>
-      <c r="Q5" t="s">
-        <v>198</v>
-      </c>
       <c r="R5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -7653,13 +7643,13 @@
         <v>43745</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -7695,13 +7685,13 @@
         <v>15.345173792649399</v>
       </c>
       <c r="P6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q6" t="s">
         <v>207</v>
       </c>
-      <c r="Q6" t="s">
-        <v>208</v>
-      </c>
       <c r="R6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -7709,13 +7699,13 @@
         <v>43745</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -7745,19 +7735,19 @@
         <v>16601.02</v>
       </c>
       <c r="N7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q7" t="s">
         <v>209</v>
       </c>
-      <c r="Q7" t="s">
-        <v>210</v>
-      </c>
       <c r="R7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -7765,13 +7755,13 @@
         <v>43745</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -7801,19 +7791,19 @@
         <v>16601.02</v>
       </c>
       <c r="N8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P8" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q8" t="s">
         <v>211</v>
       </c>
-      <c r="Q8" t="s">
-        <v>212</v>
-      </c>
       <c r="R8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -7821,13 +7811,13 @@
         <v>43745</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -7857,19 +7847,19 @@
         <v>16601.02</v>
       </c>
       <c r="N9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P9" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q9" t="s">
         <v>213</v>
       </c>
-      <c r="Q9" t="s">
-        <v>214</v>
-      </c>
       <c r="R9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -7877,10 +7867,10 @@
         <v>43745</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
@@ -7913,19 +7903,19 @@
         <v>16601.02</v>
       </c>
       <c r="N10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P10" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q10" t="s">
         <v>199</v>
       </c>
-      <c r="Q10" t="s">
-        <v>200</v>
-      </c>
       <c r="R10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -7933,10 +7923,10 @@
         <v>43745</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
@@ -7969,19 +7959,19 @@
         <v>16601.02</v>
       </c>
       <c r="N11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P11" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q11" t="s">
         <v>201</v>
       </c>
-      <c r="Q11" t="s">
-        <v>202</v>
-      </c>
       <c r="R11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -7989,7 +7979,7 @@
         <v>43745</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
         <v>80</v>
@@ -8025,19 +8015,19 @@
         <v>16601.02</v>
       </c>
       <c r="N12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P12" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q12" t="s">
         <v>203</v>
       </c>
-      <c r="Q12" t="s">
-        <v>204</v>
-      </c>
       <c r="R12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -8045,7 +8035,7 @@
         <v>43745</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
         <v>80</v>
@@ -8081,19 +8071,19 @@
         <v>16601.02</v>
       </c>
       <c r="N13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P13" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q13" t="s">
         <v>205</v>
       </c>
-      <c r="Q13" t="s">
-        <v>206</v>
-      </c>
       <c r="R13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
